--- a/messy_infarct.xlsx
+++ b/messy_infarct.xlsx
@@ -1,41 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterhiggins/Documents/RCode/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F616F974-2E8A-3E42-A195-23E4F20C7EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="10200" windowWidth="21540" windowHeight="17440" xr2:uid="{EBCAE588-3752-3E41-B038-F961AFD9ED82}"/>
+    <workbookView windowWidth="23040" windowHeight="10187" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="statin_infarct" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="36">
   <si>
     <t>Statin Arm</t>
   </si>
@@ -86,43 +66,465 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>STATIN YES</t>
+  </si>
+  <si>
+    <t>STATIN NO</t>
+  </si>
+  <si>
+    <t>STATIN LEFT ARM</t>
+  </si>
+  <si>
+    <t>STATIN RIGHT ARM</t>
+  </si>
+  <si>
+    <t>MI YES</t>
+  </si>
+  <si>
+    <t>MI NO</t>
+  </si>
+  <si>
+    <t>statin_id</t>
+  </si>
+  <si>
+    <t>statin_arm</t>
+  </si>
+  <si>
+    <t>mi_id</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>siY.saL.miY</t>
+  </si>
+  <si>
+    <t>siY.saL.miN</t>
+  </si>
+  <si>
+    <t>siY.saR.miY</t>
+  </si>
+  <si>
+    <t>siY.saR.miN</t>
+  </si>
+  <si>
+    <t>siN.saL.miY</t>
+  </si>
+  <si>
+    <t>siN.saL.miN</t>
+  </si>
+  <si>
+    <t>siN.saR.miY</t>
+  </si>
+  <si>
+    <t>siN.saR.miN</t>
+  </si>
+  <si>
+    <t>Left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FFB0B0B0"/>
       <name val="Lucida Grande"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -130,26 +532,336 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -198,7 +910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -231,26 +943,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -283,23 +978,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,771 +1119,1725 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B060D77A-7CE6-7B4E-A322-ADE6145F2910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="21.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>88</v>
+      </c>
+      <c r="G6" s="4">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4">
+        <v>90</v>
+      </c>
+      <c r="I6" s="4">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4">
+        <v>59</v>
+      </c>
+      <c r="K6" s="4">
+        <v>25</v>
+      </c>
+      <c r="L6" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>90</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4">
+        <v>95</v>
+      </c>
+      <c r="I7" s="4">
+        <v>31</v>
+      </c>
+      <c r="J7" s="4">
+        <v>66</v>
+      </c>
+      <c r="K7" s="4">
+        <v>19</v>
+      </c>
+      <c r="L7" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>8</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>9</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <v>87</v>
+      </c>
+      <c r="G10" s="4">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
+        <v>89</v>
+      </c>
+      <c r="I10" s="4">
+        <v>38</v>
+      </c>
+      <c r="J10" s="4">
+        <v>57</v>
+      </c>
+      <c r="K10" s="4">
+        <v>22</v>
+      </c>
+      <c r="L10" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4">
+        <v>90</v>
+      </c>
+      <c r="G11" s="4">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4">
+        <v>92</v>
+      </c>
+      <c r="I11" s="4">
+        <v>33</v>
+      </c>
+      <c r="J11" s="4">
+        <v>64</v>
+      </c>
+      <c r="K11" s="4">
+        <v>17</v>
+      </c>
+      <c r="L11" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4">
+        <v>18</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6</v>
+      </c>
+      <c r="L12" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>19</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7</v>
+      </c>
+      <c r="J13" s="4">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4">
+        <v>145</v>
+      </c>
+      <c r="G14" s="4">
+        <v>60</v>
+      </c>
+      <c r="H14" s="4">
+        <v>184</v>
+      </c>
+      <c r="I14" s="4">
+        <v>88</v>
+      </c>
+      <c r="J14" s="4">
+        <v>106</v>
+      </c>
+      <c r="K14" s="4">
+        <v>64</v>
+      </c>
+      <c r="L14" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4">
+        <v>163</v>
+      </c>
+      <c r="G15" s="4">
+        <v>49</v>
+      </c>
+      <c r="H15" s="4">
+        <v>191</v>
+      </c>
+      <c r="I15" s="4">
+        <v>73</v>
+      </c>
+      <c r="J15" s="4">
+        <v>121</v>
+      </c>
+      <c r="K15" s="4">
+        <v>51</v>
+      </c>
+      <c r="L15" s="4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4">
+        <v>10</v>
+      </c>
+      <c r="K16" s="4">
+        <v>6</v>
+      </c>
+      <c r="L16" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4">
+        <v>4</v>
+      </c>
+      <c r="L17" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7"/>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4">
+        <v>66</v>
+      </c>
+      <c r="G18" s="4">
+        <v>28</v>
+      </c>
+      <c r="H18" s="4">
+        <v>87</v>
+      </c>
+      <c r="I18" s="4">
+        <v>41</v>
+      </c>
+      <c r="J18" s="4">
+        <v>58</v>
+      </c>
+      <c r="K18" s="4">
+        <v>32</v>
+      </c>
+      <c r="L18" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4">
+        <v>77</v>
+      </c>
+      <c r="G19" s="4">
+        <v>25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>93</v>
+      </c>
+      <c r="I19" s="4">
+        <v>36</v>
+      </c>
+      <c r="J19" s="4">
+        <v>59</v>
+      </c>
+      <c r="K19" s="4">
+        <v>24</v>
+      </c>
+      <c r="L19" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4">
+        <v>66</v>
+      </c>
+      <c r="F20" s="4">
+        <v>242</v>
+      </c>
+      <c r="G20" s="4">
+        <v>44</v>
+      </c>
+      <c r="H20" s="4">
+        <v>147</v>
+      </c>
+      <c r="I20" s="4">
+        <v>77</v>
+      </c>
+      <c r="J20" s="4">
+        <v>94</v>
+      </c>
+      <c r="K20" s="4">
+        <v>53</v>
+      </c>
+      <c r="L20" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4">
+        <v>34</v>
+      </c>
+      <c r="F21" s="4">
+        <v>135</v>
+      </c>
+      <c r="G21" s="4">
+        <v>37</v>
+      </c>
+      <c r="H21" s="4">
+        <v>164</v>
+      </c>
+      <c r="I21" s="4">
+        <v>55</v>
+      </c>
+      <c r="J21" s="4">
+        <v>194</v>
+      </c>
+      <c r="K21" s="4">
+        <v>42</v>
+      </c>
+      <c r="L21" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4">
+        <v>327</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1297</v>
+      </c>
+      <c r="G22" s="4">
+        <v>223</v>
+      </c>
+      <c r="H22" s="4">
+        <v>735</v>
+      </c>
+      <c r="I22" s="4">
+        <v>378</v>
+      </c>
+      <c r="J22" s="4">
+        <v>456</v>
+      </c>
+      <c r="K22" s="4">
+        <v>252</v>
+      </c>
+      <c r="L22" s="4">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4">
+        <v>167</v>
+      </c>
+      <c r="F23" s="4">
+        <v>657</v>
+      </c>
+      <c r="G23" s="4">
+        <v>198</v>
+      </c>
+      <c r="H23" s="4">
+        <v>802</v>
+      </c>
+      <c r="I23" s="4">
+        <v>289</v>
+      </c>
+      <c r="J23" s="4">
+        <v>489</v>
+      </c>
+      <c r="K23" s="4">
+        <v>198</v>
+      </c>
+      <c r="L23" s="4">
+        <v>807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="46.7" customWidth="1"/>
+    <col min="2" max="2" width="13.6" customWidth="1"/>
+    <col min="3" max="3" width="6.9" customWidth="1"/>
+    <col min="4" max="4" width="10.6" customWidth="1"/>
+    <col min="5" max="5" width="11.7" customWidth="1"/>
+    <col min="6" max="7" width="6.9" customWidth="1"/>
+    <col min="8" max="16384" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:15">
+      <c r="H1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="8:15">
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="8:15">
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2">
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="K5" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="L5" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="M5" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="O5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2">
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="I7" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="M7" s="4">
         <v>2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
+      <c r="O7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <v>16</v>
       </c>
-      <c r="F6" s="2">
+      <c r="I8" s="4">
         <v>88</v>
       </c>
-      <c r="G6" s="2">
+      <c r="J8" s="4">
         <v>14</v>
       </c>
-      <c r="H6" s="2">
+      <c r="K8" s="4">
         <v>90</v>
       </c>
-      <c r="I6" s="2">
+      <c r="L8" s="4">
         <v>37</v>
       </c>
-      <c r="J6" s="2">
+      <c r="M8" s="4">
         <v>59</v>
       </c>
-      <c r="K6" s="2">
+      <c r="N8" s="4">
         <v>25</v>
       </c>
-      <c r="L6" s="2">
+      <c r="O8" s="4">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2">
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2">
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4">
         <v>90</v>
       </c>
-      <c r="G7" s="2">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="J9" s="4">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4">
         <v>95</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L9" s="4">
         <v>31</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M9" s="4">
         <v>66</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N9" s="4">
         <v>19</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O9" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="I10" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="J10" s="4">
         <v>4</v>
       </c>
-      <c r="H8" s="2">
+      <c r="K10" s="4">
         <v>7</v>
       </c>
-      <c r="I8" s="2">
+      <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="M10" s="4">
         <v>8</v>
       </c>
-      <c r="K8" s="2">
+      <c r="N10" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="2">
+      <c r="O10" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2">
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="I11" s="4">
         <v>3</v>
       </c>
-      <c r="G9" s="2">
+      <c r="J11" s="4">
         <v>3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="K11" s="4">
         <v>6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="L11" s="4">
         <v>3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="M11" s="4">
         <v>9</v>
       </c>
-      <c r="K9" s="2">
+      <c r="N11" s="4">
         <v>3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="O11" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
         <v>16</v>
       </c>
-      <c r="F10" s="2">
+      <c r="I12" s="4">
         <v>87</v>
       </c>
-      <c r="G10" s="2">
+      <c r="J12" s="4">
         <v>14</v>
       </c>
-      <c r="H10" s="2">
+      <c r="K12" s="4">
         <v>89</v>
       </c>
-      <c r="I10" s="2">
+      <c r="L12" s="4">
         <v>38</v>
       </c>
-      <c r="J10" s="2">
+      <c r="M12" s="4">
         <v>57</v>
       </c>
-      <c r="K10" s="2">
+      <c r="N12" s="4">
         <v>22</v>
       </c>
-      <c r="L10" s="2">
+      <c r="O12" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2">
+    <row r="13" spans="1:15">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
         <v>14</v>
       </c>
-      <c r="F11" s="2">
+      <c r="I13" s="4">
         <v>90</v>
       </c>
-      <c r="G11" s="2">
+      <c r="J13" s="4">
         <v>12</v>
       </c>
-      <c r="H11" s="2">
+      <c r="K13" s="4">
         <v>92</v>
       </c>
-      <c r="I11" s="2">
+      <c r="L13" s="4">
         <v>33</v>
       </c>
-      <c r="J11" s="2">
+      <c r="M13" s="4">
         <v>64</v>
       </c>
-      <c r="K11" s="2">
+      <c r="N13" s="4">
         <v>17</v>
       </c>
-      <c r="L11" s="2">
+      <c r="O13" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="2">
+      <c r="I14" s="4">
         <v>14</v>
       </c>
-      <c r="G12" s="2">
+      <c r="J14" s="4">
         <v>6</v>
       </c>
-      <c r="H12" s="2">
+      <c r="K14" s="4">
         <v>18</v>
       </c>
-      <c r="I12" s="2">
+      <c r="L14" s="4">
         <v>9</v>
       </c>
-      <c r="J12" s="2">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="M14" s="4">
+        <v>11</v>
+      </c>
+      <c r="N14" s="4">
         <v>6</v>
       </c>
-      <c r="L12" s="2">
+      <c r="O14" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2">
+    <row r="15" spans="1:15">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="2">
+      <c r="I15" s="4">
         <v>15</v>
       </c>
-      <c r="G13" s="2">
+      <c r="J15" s="4">
         <v>4</v>
       </c>
-      <c r="H13" s="2">
+      <c r="K15" s="4">
         <v>19</v>
       </c>
-      <c r="I13" s="2">
+      <c r="L15" s="4">
         <v>7</v>
       </c>
-      <c r="J13" s="2">
+      <c r="M15" s="4">
         <v>13</v>
       </c>
-      <c r="K13" s="2">
+      <c r="N15" s="4">
         <v>5</v>
       </c>
-      <c r="L13" s="2">
+      <c r="O15" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:15">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
         <v>44</v>
       </c>
-      <c r="F14" s="2">
+      <c r="I16" s="4">
         <v>145</v>
       </c>
-      <c r="G14" s="2">
+      <c r="J16" s="4">
         <v>60</v>
       </c>
-      <c r="H14" s="2">
+      <c r="K16" s="4">
         <v>184</v>
       </c>
-      <c r="I14" s="2">
+      <c r="L16" s="4">
         <v>88</v>
       </c>
-      <c r="J14" s="2">
+      <c r="M16" s="4">
         <v>106</v>
       </c>
-      <c r="K14" s="2">
+      <c r="N16" s="4">
         <v>64</v>
       </c>
-      <c r="L14" s="2">
+      <c r="O16" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2">
+    <row r="17" spans="1:15">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
         <v>38</v>
       </c>
-      <c r="F15" s="2">
+      <c r="I17" s="4">
         <v>163</v>
       </c>
-      <c r="G15" s="2">
+      <c r="J17" s="4">
         <v>49</v>
       </c>
-      <c r="H15" s="2">
+      <c r="K17" s="4">
         <v>191</v>
       </c>
-      <c r="I15" s="2">
+      <c r="L17" s="4">
         <v>73</v>
       </c>
-      <c r="J15" s="2">
+      <c r="M17" s="4">
         <v>121</v>
       </c>
-      <c r="K15" s="2">
+      <c r="N17" s="4">
         <v>51</v>
       </c>
-      <c r="L15" s="2">
+      <c r="O17" s="4">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:15">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="I18" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="J18" s="4">
         <v>5</v>
       </c>
-      <c r="H16" s="2">
+      <c r="K18" s="4">
         <v>8</v>
       </c>
-      <c r="I16" s="2">
+      <c r="L18" s="4">
         <v>6</v>
       </c>
-      <c r="J16" s="2">
+      <c r="M18" s="4">
         <v>10</v>
       </c>
-      <c r="K16" s="2">
+      <c r="N18" s="4">
         <v>6</v>
       </c>
-      <c r="L16" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2">
+      <c r="O18" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="G17" s="2">
+      <c r="J19" s="4">
         <v>4</v>
       </c>
-      <c r="H17" s="2">
+      <c r="K19" s="4">
         <v>7</v>
       </c>
-      <c r="I17" s="2">
+      <c r="L19" s="4">
         <v>4</v>
       </c>
-      <c r="J17" s="2">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="M19" s="4">
+        <v>11</v>
+      </c>
+      <c r="N19" s="4">
         <v>4</v>
       </c>
-      <c r="L17" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="O19" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
+      <c r="I20" s="4">
         <v>66</v>
       </c>
-      <c r="G18" s="2">
+      <c r="J20" s="4">
         <v>28</v>
       </c>
-      <c r="H18" s="2">
+      <c r="K20" s="4">
         <v>87</v>
       </c>
-      <c r="I18" s="2">
+      <c r="L20" s="4">
         <v>41</v>
       </c>
-      <c r="J18" s="2">
+      <c r="M20" s="4">
         <v>58</v>
       </c>
-      <c r="K18" s="2">
+      <c r="N20" s="4">
         <v>32</v>
       </c>
-      <c r="L18" s="2">
+      <c r="O20" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2">
+    <row r="21" spans="1:15">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
         <v>17</v>
       </c>
-      <c r="F19" s="2">
+      <c r="I21" s="4">
         <v>77</v>
       </c>
-      <c r="G19" s="2">
+      <c r="J21" s="4">
         <v>25</v>
       </c>
-      <c r="H19" s="2">
+      <c r="K21" s="4">
         <v>93</v>
       </c>
-      <c r="I19" s="2">
+      <c r="L21" s="4">
         <v>36</v>
       </c>
-      <c r="J19" s="2">
+      <c r="M21" s="4">
         <v>59</v>
       </c>
-      <c r="K19" s="2">
+      <c r="N21" s="4">
         <v>24</v>
       </c>
-      <c r="L19" s="2">
+      <c r="O21" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
         <v>66</v>
       </c>
-      <c r="F20" s="2">
+      <c r="I22" s="4">
         <v>242</v>
       </c>
-      <c r="G20" s="2">
+      <c r="J22" s="4">
         <v>44</v>
       </c>
-      <c r="H20" s="2">
+      <c r="K22" s="4">
         <v>147</v>
       </c>
-      <c r="I20" s="2">
+      <c r="L22" s="4">
         <v>77</v>
       </c>
-      <c r="J20" s="2">
+      <c r="M22" s="4">
         <v>94</v>
       </c>
-      <c r="K20" s="2">
+      <c r="N22" s="4">
         <v>53</v>
       </c>
-      <c r="L20" s="2">
+      <c r="O22" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2">
+    <row r="23" spans="1:15">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
         <v>34</v>
       </c>
-      <c r="F21" s="2">
+      <c r="I23" s="4">
         <v>135</v>
       </c>
-      <c r="G21" s="2">
+      <c r="J23" s="4">
         <v>37</v>
       </c>
-      <c r="H21" s="2">
+      <c r="K23" s="4">
         <v>164</v>
       </c>
-      <c r="I21" s="2">
+      <c r="L23" s="4">
         <v>55</v>
       </c>
-      <c r="J21" s="2">
+      <c r="M23" s="4">
         <v>194</v>
       </c>
-      <c r="K21" s="2">
+      <c r="N23" s="4">
         <v>42</v>
       </c>
-      <c r="L21" s="2">
+      <c r="O23" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="1:15">
+      <c r="A24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
         <v>327</v>
       </c>
-      <c r="F22" s="2">
+      <c r="I24" s="4">
         <v>1297</v>
       </c>
-      <c r="G22" s="2">
+      <c r="J24" s="4">
         <v>223</v>
       </c>
-      <c r="H22" s="2">
+      <c r="K24" s="4">
         <v>735</v>
       </c>
-      <c r="I22" s="2">
+      <c r="L24" s="4">
         <v>378</v>
       </c>
-      <c r="J22" s="2">
+      <c r="M24" s="4">
         <v>456</v>
       </c>
-      <c r="K22" s="2">
+      <c r="N24" s="4">
         <v>252</v>
       </c>
-      <c r="L22" s="2">
+      <c r="O24" s="4">
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2">
+    <row r="25" spans="1:15">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
         <v>167</v>
       </c>
-      <c r="F23" s="2">
+      <c r="I25" s="4">
         <v>657</v>
       </c>
-      <c r="G23" s="2">
+      <c r="J25" s="4">
         <v>198</v>
       </c>
-      <c r="H23" s="2">
+      <c r="K25" s="4">
         <v>802</v>
       </c>
-      <c r="I23" s="2">
+      <c r="L25" s="4">
         <v>289</v>
       </c>
-      <c r="J23" s="2">
+      <c r="M25" s="4">
         <v>489</v>
       </c>
-      <c r="K23" s="2">
+      <c r="N25" s="4">
         <v>198</v>
       </c>
-      <c r="L23" s="2">
+      <c r="O25" s="4">
         <v>807</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="6">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>